--- a/doc/start/TITAN_WAR_profile.xlsx
+++ b/doc/start/TITAN_WAR_profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="690" windowWidth="21555" windowHeight="11790" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="6015" yWindow="690" windowWidth="21555" windowHeight="11790" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="2" r:id="rId1"/>
@@ -7155,8 +7155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7695,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
